--- a/biology/Médecine/Médecin_de_campagne/Médecin_de_campagne.xlsx
+++ b/biology/Médecine/Médecin_de_campagne/Médecin_de_campagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_de_campagne</t>
+          <t>Médecin_de_campagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin de campagne est une comédie dramatique française réalisée par Thomas Lilti, sortie en 2016.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_de_campagne</t>
+          <t>Médecin_de_campagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Werner, médecin de campagne qui ne vit que pour son travail, est obligé de ralentir son activité pour le traitement d'un cancer du poumon et d'une tumeur cérébrale. Sans le prévenir, son cancérologue lui envoie le médecin Nathalie Delezia pour l'aider dans sa tâche. Ayant l'habitude de toujours tout faire lui-même, Jean-Pierre n'apprécie pas la venue de celle-ci.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_de_campagne</t>
+          <t>Médecin_de_campagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre : Médecin de campagne
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_de_campagne</t>
+          <t>Médecin_de_campagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 François Cluzet : Dr Jean-Pierre Werner
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9decin_de_campagne</t>
+          <t>Médecin_de_campagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,11 +655,47 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Thomas Lilti s'inspire de ses remplacements en tant que médecin de campagne[1] pour réaliser son troisième long-métrage.
-Lieux de tournage
-Val-d'Oise
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thomas Lilti s'inspire de ses remplacements en tant que médecin de campagne pour réaliser son troisième long-métrage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Médecin_de_campagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_de_campagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lieux de tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Val-d'Oise
 Le centre hospitalier d'Argenteuil
 Arthies
 Chars
@@ -664,31 +718,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M%C3%A9decin_de_campagne</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Médecin_de_campagne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_de_campagne</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
@@ -701,36 +757,76 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>M%C3%A9decin_de_campagne</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Médecin_de_campagne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_de_campagne</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Selon Noémie Luciani, à l'occasion de la diffusion du film sur France 2, Thomas Lilti, le médecin-scénariste-réalisateur de la série Hippocrate, dresse un tableau juste de la vocation de médecin de campagne et de ses contradictions. Le réalisateur réussit à « consacrer autant de vigueur à dire son admiration pour son personnage qu’à peindre l’autre face du dévouement : l’acharnement de Werner à défendre son territoire »[2].
-Box-office
-Sorti en mars 2016, Médecin de campagne totalise 1,5 million d'entrées. De plus, il est le film qui a la plus longue durée à l'affiche en 2016 (41 semaines et le film est encore en salles début 2017, mais dans une faible combinaison de copies)[3],[4]. Au niveau européen, le film rassemble plus de 1,7 million de spectateurs[5].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Noémie Luciani, à l'occasion de la diffusion du film sur France 2, Thomas Lilti, le médecin-scénariste-réalisateur de la série Hippocrate, dresse un tableau juste de la vocation de médecin de campagne et de ses contradictions. Le réalisateur réussit à « consacrer autant de vigueur à dire son admiration pour son personnage qu’à peindre l’autre face du dévouement : l’acharnement de Werner à défendre son territoire ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Médecin_de_campagne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decin_de_campagne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorti en mars 2016, Médecin de campagne totalise 1,5 million d'entrées. De plus, il est le film qui a la plus longue durée à l'affiche en 2016 (41 semaines et le film est encore en salles début 2017, mais dans une faible combinaison de copies),. Au niveau européen, le film rassemble plus de 1,7 million de spectateurs.
 </t>
         </is>
       </c>
